--- a/lin/help/distant_consult.xlsx
+++ b/lin/help/distant_consult.xlsx
@@ -5,27 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\miacshare\COVID-списки\Входящие списки\для загрузки\Robot\_ФР_по_частям\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="0" windowWidth="27255" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
     <sheet name="dolg" sheetId="2" r:id="rId2"/>
+    <sheet name="эталон" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">эталон!$B$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Регион</t>
   </si>
@@ -72,69 +71,603 @@
     <t>Из столбца 19 работников с неоконченным средним медицинским образованием_13</t>
   </si>
   <si>
-    <t>Число звонков за сутки Входящих_14</t>
-  </si>
-  <si>
-    <t>Число звонков за сутки Исходящих_15</t>
-  </si>
-  <si>
-    <t>Число должностей работников ед штатных_16</t>
-  </si>
-  <si>
-    <t>Число должностей работников ед занятых_17</t>
-  </si>
-  <si>
-    <t>Число физических лиц основных работников на занятых должностях чел_18</t>
-  </si>
-  <si>
-    <t>Принято сотрудников на должность за прошедшие сутки чел_19</t>
-  </si>
-  <si>
-    <t>Выбыло сотрудников с должности за прошедшие сутки чел_20</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Естественное выбытие смерть выход на пенсию_20_1</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Увольнение_20_2</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Иные причины_20_3</t>
-  </si>
-  <si>
-    <t>Потребность в сотрудниках чел_21</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с высшим медицинским образованием_23</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников со средним медицинским образованием_24</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с неоконченным высшим медицинским образованием_25</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с неоконченным средним медицинским образованием_26</t>
-  </si>
-  <si>
-    <t>Число звонков за сутки Входящих_27</t>
-  </si>
-  <si>
-    <t>Число звонков за сутки Исходящих_28</t>
-  </si>
-  <si>
-    <t>г.  Санкт Петербург</t>
-  </si>
-  <si>
     <t>Должники:</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №56"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №52"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №102"</t>
+  </si>
+  <si>
+    <t>Число  физ лиц привлеченных на безвозмездной основе в тч добровольцев волонтеров_14</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Входящих_15</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Исходящих_16</t>
+  </si>
+  <si>
+    <t>Число должностей работников ед штатных_17</t>
+  </si>
+  <si>
+    <t>Число должностей работников ед занятых_18</t>
+  </si>
+  <si>
+    <t>Число физических лиц основных работников на занятых должностях чел_19</t>
+  </si>
+  <si>
+    <t>Принято сотрудников на должность за прошедшие сутки чел_20</t>
+  </si>
+  <si>
+    <t>Выбыло сотрудников с должности за прошедшие сутки чел_21</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Естественное выбытие смерть выход на пенсию_21_1</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Увольнение_21_2</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Иные причины_21_3</t>
+  </si>
+  <si>
+    <t>Потребность в сотрудниках чел_22</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с высшим медицинским образованием_24</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников со средним медицинским образованием_25</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с неоконченным высшим медицинским образованием_26</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с неоконченным средним медицинским образованием_27</t>
+  </si>
+  <si>
+    <t>Число  физ лиц привлеченных на безвозмездной основе в тч добровольцев волонтеров_28</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Входящих_29</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Исходящих_30</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская поликлиника № 30"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОВРЕМЕННАЯ МЕДИЦИНА"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Городские поликлиники»</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская больница №40 Курортного района"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №3"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №14"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №22"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №23"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №28"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №30"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №34"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №37"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №39"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №46"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №49"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения «Городская поликлиника № 54»</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №63"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №72"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №78"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника № 87"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №88"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №91"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №93"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №94 Невского района"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №95"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения «Городская поликлиника № 96»</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №98"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №99"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника № 32"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №104"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №106"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №107"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №109"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №114"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №117"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения «Городская поликлиника № 118»</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №120"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №122"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №7"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №29"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №35"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №62"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №73"</t>
+  </si>
+  <si>
+    <t>федеральное государственное бюджетное образовательное учреждение высшего образования "Северо-Западный государственный медицинский университет имени И.И. Мечникова" Министерства здравоохранения Российской Федерации</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №25 Невского района"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №60 Пушкинского района"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №45 Невского района"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №49" Пушкинского района</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР СЕМЕЙНОЙ МЕДИЦИНЫ "21 ВЕК"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЙ ЦЕНТР ЭКО- БЕЗОПАСНОСТЬ"</t>
+  </si>
+  <si>
+    <t>Полное наименование МО (из ФРМО)</t>
+  </si>
+  <si>
+    <t>ЧАСТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "КЛИНИЧЕСКАЯ БОЛЬНИЦА "РЖД-МЕДИЦИНА" ГОРОДА САНКТ-ПЕТЕРБУРГ"</t>
+  </si>
+  <si>
+    <t>ООО "Современная медицина"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №14"</t>
+  </si>
+  <si>
+    <t>№№</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №23"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО СЗГМУ им. И.И. Мечникова Минздрава России</t>
+  </si>
+  <si>
+    <t>федеральное государственное бюджетное образовательное учреждение высшего образования «Первый Санкт-Петербургский государственный медицинский университет имени академика И.П. Павлова» Министерства здравоохранения Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ПСПбГМУ им. И.П.Павлова Минздрава России</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Николаевская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Николаевская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Городская поликлиника №40"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №100 Невского района Санкт-Петербурга"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №102"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №104"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №106"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №107"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №109"</t>
+  </si>
+  <si>
+    <t>Краткое наименование МО (для вывода должников)</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №114"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №117"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №118"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №120"</t>
+  </si>
+  <si>
+    <t>Спб ГБУЗ "Городская поликлиника №122"</t>
+  </si>
+  <si>
+    <t>ЧУЗ «КБ «РЖД-МЕДИЦИНА» Г. С-ПЕТЕРБУРГ»</t>
+  </si>
+  <si>
+    <t>ООО "Городские поликлиники"</t>
+  </si>
+  <si>
+    <t>ООО "МЦ Эко-безопасность"</t>
+  </si>
+  <si>
+    <t>ООО "ЦСМ "XXI век"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская поликлиника №30"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №7"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №73"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №62"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №45"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №49"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №29"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №35"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №98"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №99"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №87"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №88"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №91"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №93"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №94"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №95"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №96"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №78"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №40 Курортного района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №22"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №100"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника № 111"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №112"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №112"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №111"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №60"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №72"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №74"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №74"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №77 Невского района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №77"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №28"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №30"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №34"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №37"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №32"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №21"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №21"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №25"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №39"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №46"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №49"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №54"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №68"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №68"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №63"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская Городская Поликлиника №51"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №51"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №11"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №97"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №97"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №86"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"»</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №51"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №48"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №38"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №43"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №24"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №27"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №56 "</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №51"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №52"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №48"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №38"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №27"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №24"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №4"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №43"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>Кол-во должников:</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское Государственное автономное учреждение здравоохранения "Городская поликлиника №40"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,11 +719,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,18 +1114,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="35" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,89 +1170,1155 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:BB1000">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="18">
+        <f>COUNTA(B3:B500)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
+      <c r="B34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>84</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>85</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lin/help/distant_consult.xlsx
+++ b/lin/help/distant_consult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Регион</t>
   </si>
@@ -92,54 +92,6 @@
     <t>Число звонков за сутки Исходящих_16</t>
   </si>
   <si>
-    <t>Число должностей работников ед штатных_17</t>
-  </si>
-  <si>
-    <t>Число должностей работников ед занятых_18</t>
-  </si>
-  <si>
-    <t>Число физических лиц основных работников на занятых должностях чел_19</t>
-  </si>
-  <si>
-    <t>Принято сотрудников на должность за прошедшие сутки чел_20</t>
-  </si>
-  <si>
-    <t>Выбыло сотрудников с должности за прошедшие сутки чел_21</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Естественное выбытие смерть выход на пенсию_21_1</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Увольнение_21_2</t>
-  </si>
-  <si>
-    <t>Выбытие в тч по причинам Иные причины_21_3</t>
-  </si>
-  <si>
-    <t>Потребность в сотрудниках чел_22</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с высшим медицинским образованием_24</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников со средним медицинским образованием_25</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с неоконченным высшим медицинским образованием_26</t>
-  </si>
-  <si>
-    <t>Из столбца 18 работников с неоконченным средним медицинским образованием_27</t>
-  </si>
-  <si>
-    <t>Число  физ лиц привлеченных на безвозмездной основе в тч добровольцев волонтеров_28</t>
-  </si>
-  <si>
-    <t>Число звонков за сутки Входящих_29</t>
-  </si>
-  <si>
-    <t>Число звонков за сутки Исходящих_30</t>
-  </si>
-  <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская поликлиника № 30"</t>
   </si>
   <si>
@@ -651,6 +603,60 @@
   </si>
   <si>
     <t>Санкт-Петербургское Государственное автономное учреждение здравоохранения "Городская поликлиника №40"</t>
+  </si>
+  <si>
+    <t>Из столбца 5: Сотрудник МФЦ, привлекаемые к работе, чел _17</t>
+  </si>
+  <si>
+    <t>Число должностей работников ед штатных__3</t>
+  </si>
+  <si>
+    <t>Число должностей работников ед занятых__4</t>
+  </si>
+  <si>
+    <t>Число физических лиц основных работников на занятых должностях чел__5</t>
+  </si>
+  <si>
+    <t>Принято сотрудников на должность за прошедшие сутки чел__6</t>
+  </si>
+  <si>
+    <t>Выбыло сотрудников с должности за прошедшие сутки чел__7</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Естественное выбытие смерть выход на пенсию_7__1</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Увольнение_7__2</t>
+  </si>
+  <si>
+    <t>Выбытие в тч по причинам Иные причины_7__3</t>
+  </si>
+  <si>
+    <t>Потребность в сотрудниках чел__8</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с высшим медицинским образованием__10</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников со средним медицинским образованием__11</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с неоконченным высшим медицинским образованием__12</t>
+  </si>
+  <si>
+    <t>Из столбца 18 работников с неоконченным средним медицинским образованием__13</t>
+  </si>
+  <si>
+    <t>Число  физ лиц привлеченных на безвозмездной основе в тч добровольцев волонтеров__14</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Входящих__15</t>
+  </si>
+  <si>
+    <t>Число звонков за сутки Исходящих__16</t>
+  </si>
+  <si>
+    <t>Из столбца 5: Сотрудник МФЦ, привлекаемые к работе, чел__17</t>
   </si>
 </sst>
 </file>
@@ -1114,16 +1120,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="35" width="22.7109375" customWidth="1"/>
+    <col min="36" max="36" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,52 +1188,58 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>37</v>
+        <v>208</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1258,7 @@
   <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E2" s="18">
         <f>COUNTA(B3:B500)</f>
@@ -1303,13 +1318,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,10 +1365,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,10 +1376,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1372,10 +1387,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1383,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -1405,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,10 +1431,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,10 +1442,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1453,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1449,10 +1464,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,10 +1475,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,10 +1497,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1493,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,10 +1519,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,10 +1530,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,10 +1541,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,10 +1552,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,10 +1563,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1585,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1603,10 +1618,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1629,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,10 +1662,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,10 +1673,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,10 +1684,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,10 +1695,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,10 +1706,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,10 +1717,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,10 +1739,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,10 +1750,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,10 +1761,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,10 +1772,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,10 +1783,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,10 +1794,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,7 +1805,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
@@ -1801,10 +1816,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1827,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>16</v>
@@ -1823,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1834,10 +1849,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,10 +1860,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,10 +1871,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,10 +1882,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,10 +1893,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1889,10 +1904,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,10 +1915,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,10 +1926,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,10 +1937,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1948,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,10 +1959,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,10 +1970,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1981,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1977,10 +1992,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,10 +2003,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,10 +2014,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,10 +2025,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,10 +2036,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,10 +2047,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2043,10 +2058,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2054,10 +2069,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2065,10 +2080,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2076,10 +2091,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2087,10 +2102,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2098,10 +2113,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2109,10 +2124,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2120,10 +2135,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2131,10 +2146,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2142,10 +2157,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2153,10 +2168,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2164,10 +2179,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2175,10 +2190,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2186,10 +2201,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,10 +2212,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,10 +2223,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2219,10 +2234,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2230,10 +2245,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2241,10 +2256,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">

--- a/lin/help/distant_consult.xlsx
+++ b/lin/help/distant_consult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки_временные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="эталон" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">эталон!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">эталон!$A$1:$C$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -248,9 +248,6 @@
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №49" Пушкинского района</t>
   </si>
   <si>
-    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР СЕМЕЙНОЙ МЕДИЦИНЫ "21 ВЕК"</t>
-  </si>
-  <si>
     <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЙ ЦЕНТР ЭКО- БЕЗОПАСНОСТЬ"</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №86"</t>
   </si>
   <si>
-    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"»</t>
-  </si>
-  <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №6"</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №27"</t>
   </si>
   <si>
-    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №56 "</t>
-  </si>
-  <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №51"</t>
   </si>
   <si>
@@ -657,6 +648,15 @@
   </si>
   <si>
     <t>Из столбца 5: Сотрудник МФЦ, привлекаемые к работе, чел__17</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №56"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Центр Семейной Медицины "XXI век"</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,197 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1188,63 +1378,63 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BB1000">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1257,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" s="18">
         <f>COUNTA(B3:B500)</f>
@@ -1283,18 +1473,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1304,9 +1494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,13 +1508,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1525,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1555,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1390,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1398,10 +1588,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -1423,7 +1613,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1464,10 +1654,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1665,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +1690,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1511,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1723,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,10 +1742,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,10 +1764,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,10 +1797,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1621,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,10 +1819,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,7 +1866,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,7 +1877,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,7 +1888,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,10 +1896,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,7 +1910,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,10 +1918,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,10 +1929,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1940,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1962,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,10 +1984,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
@@ -1819,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,7 +2017,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>16</v>
@@ -1838,10 +2028,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1852,7 +2042,7 @@
         <v>71</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +2053,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,7 +2064,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,10 +2083,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1904,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,10 +2116,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,10 +2127,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +2174,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1995,7 +2185,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2196,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2207,7 @@
         <v>49</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2215,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2229,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2240,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2058,10 +2248,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2072,7 +2262,7 @@
         <v>63</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2080,10 +2270,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2094,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2105,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2113,10 +2303,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2127,7 +2317,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2138,7 +2328,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2146,10 +2336,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2160,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2168,10 +2358,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2182,7 +2372,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2193,7 +2383,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2204,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2405,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,10 +2413,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2234,10 +2424,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2248,7 +2438,7 @@
         <v>69</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2256,26 +2446,26 @@
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="9"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="9"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
@@ -2328,10 +2518,38 @@
       <c r="C99" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <autoFilter ref="A1:C89"/>
+  <conditionalFormatting sqref="B1:B4 B90:B1048576 B58:B86 B48:B56 B6:B46">
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="B5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
